--- a/file2.xlsx
+++ b/file2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phan Tich Thau\DL web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phan Tich Thau\DL web\loc-thau-thuoc-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A471B558-A888-43D9-BF96-1EA2E05A4D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EDE4F9-12A0-4F79-842C-7E20F8E248EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{415F7D56-AA7E-4C19-A8E2-C0ED349B5966}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$626</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1026</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4104" uniqueCount="754">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -2195,6 +2195,130 @@
   </si>
   <si>
     <t>Pravastatin SaVi 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cetirizin dihydrochlorid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cetirizin dihydroclorid</t>
+  </si>
+  <si>
+    <t>Cetirizin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cetirizin </t>
+  </si>
+  <si>
+    <t>Cetirizin  dihydroclorid</t>
+  </si>
+  <si>
+    <t>Cetirizin 
+dihydroclorid</t>
+  </si>
+  <si>
+    <t>Cetirizin (dihydroclorid)</t>
+  </si>
+  <si>
+    <t>Cetirizin (dưới dạng Cetirizin dihydroclorid)</t>
+  </si>
+  <si>
+    <t>Cetirizin 10 mg</t>
+  </si>
+  <si>
+    <t>Cetirizin 10mg</t>
+  </si>
+  <si>
+    <t>Cetirizin dihydrochlorid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cetirizin dihydrochlorid </t>
+  </si>
+  <si>
+    <t>Cetirizin dihydrochlorid 10mg</t>
+  </si>
+  <si>
+    <t>Cetirizin dihydroclorid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cetirizin dihydroclorid </t>
+  </si>
+  <si>
+    <t>Cetirizin dihydroclorid 10 mg</t>
+  </si>
+  <si>
+    <t>Cetirizin dihydroclorid 10mg</t>
+  </si>
+  <si>
+    <t>Cetirizin hydrochlorid</t>
+  </si>
+  <si>
+    <t>Cetirizin hydrochloride</t>
+  </si>
+  <si>
+    <t>Cetirizin hydroclorid</t>
+  </si>
+  <si>
+    <t>Cetirizine</t>
+  </si>
+  <si>
+    <t>Cetirizine Dihydrochlorid</t>
+  </si>
+  <si>
+    <t>Cetirizine Dihydrochloride</t>
+  </si>
+  <si>
+    <t>Cetirizine Dihydrochloride 10 mg</t>
+  </si>
+  <si>
+    <t>Cetirizine hydrochloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cetirizine hydrochloride </t>
+  </si>
+  <si>
+    <t>Cetirizine hydrocloride</t>
+  </si>
+  <si>
+    <t>Mỗi 60 ml siro chứa: Cetirizin dihydrochlorid 60mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10mg</t>
+  </si>
+  <si>
+    <t>10mg/10ml x 60ml</t>
+  </si>
+  <si>
+    <t>10mg/10ml, 60ml</t>
+  </si>
+  <si>
+    <t>10mg/10ml; 60ml</t>
+  </si>
+  <si>
+    <t>1mg/1ml x 60ml</t>
+  </si>
+  <si>
+    <t>1mg/ml x 60ml</t>
+  </si>
+  <si>
+    <t>1mg/ml; 60ml</t>
+  </si>
+  <si>
+    <t>5mg/5ml - 60ml</t>
+  </si>
+  <si>
+    <t>5mg/5ml; 60ml</t>
+  </si>
+  <si>
+    <t>5mg5ml; 60ml</t>
+  </si>
+  <si>
+    <t>Cetirizin dạng muối 10mg</t>
+  </si>
+  <si>
+    <t>Dạng muối 10mg</t>
+  </si>
+  <si>
+    <t>Adezio Oral Solution 1mg/ml</t>
   </si>
 </sst>
 </file>
@@ -2246,10 +2370,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2566,16 +2693,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F884FB02-6BB5-43C2-9376-9DB2EBAF47E5}">
-  <dimension ref="A1:D626"/>
+  <dimension ref="A1:G1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.9453125" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="15.20703125" customWidth="1"/>
     <col min="3" max="3" width="5.734375" customWidth="1"/>
     <col min="4" max="4" width="21.20703125" customWidth="1"/>
   </cols>
@@ -8910,156 +9037,156 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="B453" t="s">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="C453" t="s">
         <v>1</v>
       </c>
       <c r="D453" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
-        <v>481</v>
+        <v>51</v>
       </c>
       <c r="B454" t="s">
-        <v>482</v>
+        <v>76</v>
       </c>
       <c r="C454" t="s">
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="D454" t="s">
-        <v>480</v>
+        <v>652</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
-        <v>481</v>
+        <v>51</v>
       </c>
       <c r="B455" t="s">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="C455" t="s">
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="D455" t="s">
-        <v>480</v>
+        <v>652</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
-        <v>487</v>
+        <v>51</v>
       </c>
       <c r="B456" t="s">
-        <v>482</v>
+        <v>52</v>
       </c>
       <c r="C456" t="s">
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="D456" t="s">
-        <v>480</v>
+        <v>642</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
-        <v>526</v>
+        <v>51</v>
       </c>
       <c r="B457" t="s">
-        <v>527</v>
+        <v>17</v>
       </c>
       <c r="C457" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D457" t="s">
-        <v>525</v>
+        <v>642</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
-        <v>51</v>
+        <v>478</v>
       </c>
       <c r="B458" t="s">
-        <v>76</v>
+        <v>543</v>
       </c>
       <c r="C458" t="s">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="D458" t="s">
-        <v>652</v>
+        <v>704</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
-        <v>51</v>
+        <v>478</v>
       </c>
       <c r="B459" t="s">
-        <v>19</v>
+        <v>479</v>
       </c>
       <c r="C459" t="s">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="D459" t="s">
-        <v>652</v>
+        <v>704</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B460" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="C460" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D460" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B461" t="s">
-        <v>17</v>
+        <v>369</v>
       </c>
       <c r="C461" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D461" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
-        <v>478</v>
+        <v>35</v>
       </c>
       <c r="B462" t="s">
-        <v>543</v>
+        <v>484</v>
       </c>
       <c r="C462" t="s">
-        <v>314</v>
+        <v>27</v>
       </c>
       <c r="D462" t="s">
-        <v>704</v>
+        <v>636</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
-        <v>478</v>
+        <v>35</v>
       </c>
       <c r="B463" t="s">
-        <v>479</v>
+        <v>36</v>
       </c>
       <c r="C463" t="s">
-        <v>314</v>
+        <v>27</v>
       </c>
       <c r="D463" t="s">
-        <v>704</v>
+        <v>196</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9067,7 +9194,7 @@
         <v>35</v>
       </c>
       <c r="B464" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="C464" t="s">
         <v>27</v>
@@ -9081,13 +9208,13 @@
         <v>35</v>
       </c>
       <c r="B465" t="s">
-        <v>369</v>
+        <v>247</v>
       </c>
       <c r="C465" t="s">
         <v>27</v>
       </c>
       <c r="D465" t="s">
-        <v>636</v>
+        <v>196</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9095,7 +9222,7 @@
         <v>35</v>
       </c>
       <c r="B466" t="s">
-        <v>484</v>
+        <v>247</v>
       </c>
       <c r="C466" t="s">
         <v>27</v>
@@ -9109,13 +9236,13 @@
         <v>35</v>
       </c>
       <c r="B467" t="s">
-        <v>36</v>
+        <v>305</v>
       </c>
       <c r="C467" t="s">
         <v>27</v>
       </c>
       <c r="D467" t="s">
-        <v>196</v>
+        <v>636</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9123,13 +9250,13 @@
         <v>35</v>
       </c>
       <c r="B468" t="s">
-        <v>36</v>
+        <v>394</v>
       </c>
       <c r="C468" t="s">
         <v>27</v>
       </c>
       <c r="D468" t="s">
-        <v>636</v>
+        <v>196</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9137,13 +9264,13 @@
         <v>35</v>
       </c>
       <c r="B469" t="s">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="C469" t="s">
         <v>27</v>
       </c>
       <c r="D469" t="s">
-        <v>196</v>
+        <v>636</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9151,13 +9278,13 @@
         <v>35</v>
       </c>
       <c r="B470" t="s">
-        <v>247</v>
+        <v>382</v>
       </c>
       <c r="C470" t="s">
         <v>27</v>
       </c>
       <c r="D470" t="s">
-        <v>636</v>
+        <v>196</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9165,7 +9292,7 @@
         <v>35</v>
       </c>
       <c r="B471" t="s">
-        <v>305</v>
+        <v>382</v>
       </c>
       <c r="C471" t="s">
         <v>27</v>
@@ -9176,24 +9303,24 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="B472" t="s">
-        <v>394</v>
+        <v>130</v>
       </c>
       <c r="C472" t="s">
         <v>27</v>
       </c>
       <c r="D472" t="s">
-        <v>196</v>
+        <v>636</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
-        <v>35</v>
+        <v>498</v>
       </c>
       <c r="B473" t="s">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="C473" t="s">
         <v>27</v>
@@ -9204,10 +9331,10 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="B474" t="s">
-        <v>382</v>
+        <v>36</v>
       </c>
       <c r="C474" t="s">
         <v>27</v>
@@ -9218,10 +9345,10 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="B475" t="s">
-        <v>382</v>
+        <v>36</v>
       </c>
       <c r="C475" t="s">
         <v>27</v>
@@ -9232,58 +9359,58 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B476" t="s">
-        <v>130</v>
+        <v>389</v>
       </c>
       <c r="C476" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D476" t="s">
-        <v>636</v>
+        <v>134</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
-        <v>498</v>
+        <v>135</v>
       </c>
       <c r="B477" t="s">
-        <v>36</v>
+        <v>518</v>
       </c>
       <c r="C477" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D477" t="s">
-        <v>636</v>
+        <v>134</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="B478" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="C478" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D478" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="B479" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="C479" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D479" t="s">
-        <v>636</v>
+        <v>134</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9291,7 +9418,7 @@
         <v>135</v>
       </c>
       <c r="B480" t="s">
-        <v>389</v>
+        <v>165</v>
       </c>
       <c r="C480" t="s">
         <v>1</v>
@@ -9305,7 +9432,7 @@
         <v>135</v>
       </c>
       <c r="B481" t="s">
-        <v>518</v>
+        <v>333</v>
       </c>
       <c r="C481" t="s">
         <v>1</v>
@@ -9319,7 +9446,7 @@
         <v>135</v>
       </c>
       <c r="B482" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="C482" t="s">
         <v>1</v>
@@ -9333,7 +9460,7 @@
         <v>135</v>
       </c>
       <c r="B483" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="C483" t="s">
         <v>1</v>
@@ -9347,7 +9474,7 @@
         <v>135</v>
       </c>
       <c r="B484" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C484" t="s">
         <v>1</v>
@@ -9358,66 +9485,66 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="B485" t="s">
-        <v>333</v>
+        <v>31</v>
       </c>
       <c r="C485" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D485" t="s">
-        <v>134</v>
+        <v>633</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="B486" t="s">
-        <v>287</v>
+        <v>557</v>
       </c>
       <c r="C486" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D486" t="s">
-        <v>134</v>
+        <v>633</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="B487" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="C487" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D487" t="s">
-        <v>134</v>
+        <v>633</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="B488" t="s">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="C488" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D488" t="s">
-        <v>134</v>
+        <v>633</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
-        <v>30</v>
+        <v>438</v>
       </c>
       <c r="B489" t="s">
-        <v>31</v>
+        <v>439</v>
       </c>
       <c r="C489" t="s">
         <v>29</v>
@@ -9428,10 +9555,10 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
-        <v>30</v>
+        <v>438</v>
       </c>
       <c r="B490" t="s">
-        <v>557</v>
+        <v>31</v>
       </c>
       <c r="C490" t="s">
         <v>29</v>
@@ -9442,10 +9569,10 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="B491" t="s">
-        <v>515</v>
+        <v>31</v>
       </c>
       <c r="C491" t="s">
         <v>29</v>
@@ -9456,58 +9583,58 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B492" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
       <c r="C492" t="s">
         <v>29</v>
       </c>
       <c r="D492" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
-        <v>438</v>
+        <v>46</v>
       </c>
       <c r="B493" t="s">
-        <v>439</v>
+        <v>11</v>
       </c>
       <c r="C493" t="s">
         <v>29</v>
       </c>
       <c r="D493" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
-        <v>438</v>
+        <v>46</v>
       </c>
       <c r="B494" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C494" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D494" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="B495" t="s">
-        <v>31</v>
+        <v>595</v>
       </c>
       <c r="C495" t="s">
         <v>29</v>
       </c>
       <c r="D495" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9515,7 +9642,7 @@
         <v>46</v>
       </c>
       <c r="B496" t="s">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="C496" t="s">
         <v>29</v>
@@ -9529,13 +9656,13 @@
         <v>46</v>
       </c>
       <c r="B497" t="s">
-        <v>11</v>
+        <v>564</v>
       </c>
       <c r="C497" t="s">
         <v>29</v>
       </c>
       <c r="D497" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9543,97 +9670,97 @@
         <v>46</v>
       </c>
       <c r="B498" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C498" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D498" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="B499" t="s">
-        <v>595</v>
+        <v>47</v>
       </c>
       <c r="C499" t="s">
         <v>29</v>
       </c>
       <c r="D499" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="B500" t="s">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="C500" t="s">
         <v>29</v>
       </c>
       <c r="D500" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B501" t="s">
-        <v>564</v>
+        <v>508</v>
       </c>
       <c r="C501" t="s">
         <v>29</v>
       </c>
       <c r="D501" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B502" t="s">
-        <v>47</v>
+        <v>240</v>
       </c>
       <c r="C502" t="s">
         <v>29</v>
       </c>
       <c r="D502" t="s">
-        <v>639</v>
+        <v>694</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="B503" t="s">
-        <v>47</v>
+        <v>240</v>
       </c>
       <c r="C503" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D503" t="s">
-        <v>639</v>
+        <v>694</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
-        <v>296</v>
+        <v>98</v>
       </c>
       <c r="B504" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="C504" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D504" t="s">
-        <v>637</v>
+        <v>694</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9641,7 +9768,7 @@
         <v>98</v>
       </c>
       <c r="B505" t="s">
-        <v>508</v>
+        <v>38</v>
       </c>
       <c r="C505" t="s">
         <v>29</v>
@@ -9655,13 +9782,13 @@
         <v>98</v>
       </c>
       <c r="B506" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="C506" t="s">
         <v>29</v>
       </c>
       <c r="D506" t="s">
-        <v>694</v>
+        <v>637</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9669,13 +9796,13 @@
         <v>98</v>
       </c>
       <c r="B507" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="C507" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D507" t="s">
-        <v>694</v>
+        <v>637</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9683,13 +9810,13 @@
         <v>98</v>
       </c>
       <c r="B508" t="s">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="C508" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D508" t="s">
-        <v>694</v>
+        <v>637</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9697,7 +9824,7 @@
         <v>98</v>
       </c>
       <c r="B509" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="C509" t="s">
         <v>29</v>
@@ -9708,10 +9835,10 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="B510" t="s">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="C510" t="s">
         <v>29</v>
@@ -9722,10 +9849,10 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
-        <v>98</v>
+        <v>550</v>
       </c>
       <c r="B511" t="s">
-        <v>139</v>
+        <v>331</v>
       </c>
       <c r="C511" t="s">
         <v>29</v>
@@ -9736,100 +9863,100 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="B512" t="s">
-        <v>530</v>
+        <v>171</v>
       </c>
       <c r="C512" t="s">
         <v>29</v>
       </c>
       <c r="D512" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="B513" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="C513" t="s">
         <v>29</v>
       </c>
       <c r="D513" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="B514" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C514" t="s">
         <v>29</v>
       </c>
       <c r="D514" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
-        <v>550</v>
+        <v>228</v>
       </c>
       <c r="B515" t="s">
-        <v>331</v>
+        <v>240</v>
       </c>
       <c r="C515" t="s">
         <v>29</v>
       </c>
       <c r="D515" t="s">
-        <v>637</v>
+        <v>694</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="B516" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="C516" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D516" t="s">
-        <v>657</v>
+        <v>694</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="B517" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C517" t="s">
         <v>29</v>
       </c>
       <c r="D517" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="B518" t="s">
-        <v>47</v>
+        <v>612</v>
       </c>
       <c r="C518" t="s">
         <v>29</v>
       </c>
       <c r="D518" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9837,111 +9964,111 @@
         <v>228</v>
       </c>
       <c r="B519" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="C519" t="s">
         <v>29</v>
       </c>
       <c r="D519" t="s">
-        <v>694</v>
+        <v>637</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="B520" t="s">
-        <v>240</v>
+        <v>433</v>
       </c>
       <c r="C520" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D520" t="s">
-        <v>694</v>
+        <v>637</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="B521" t="s">
-        <v>38</v>
+        <v>325</v>
       </c>
       <c r="C521" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D521" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="B522" t="s">
-        <v>612</v>
+        <v>2</v>
       </c>
       <c r="C522" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D522" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="B523" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C523" t="s">
         <v>29</v>
       </c>
       <c r="D523" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
-        <v>432</v>
+        <v>18</v>
       </c>
       <c r="B524" t="s">
-        <v>433</v>
+        <v>19</v>
       </c>
       <c r="C524" t="s">
         <v>29</v>
       </c>
       <c r="D524" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B525" t="s">
-        <v>325</v>
+        <v>93</v>
       </c>
       <c r="C525" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D525" t="s">
-        <v>632</v>
+        <v>712</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B526" t="s">
-        <v>2</v>
+        <v>532</v>
       </c>
       <c r="C526" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D526" t="s">
-        <v>632</v>
+        <v>712</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9949,7 +10076,7 @@
         <v>18</v>
       </c>
       <c r="B527" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C527" t="s">
         <v>29</v>
@@ -9963,13 +10090,13 @@
         <v>18</v>
       </c>
       <c r="B528" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="C528" t="s">
         <v>29</v>
       </c>
       <c r="D528" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9977,13 +10104,13 @@
         <v>18</v>
       </c>
       <c r="B529" t="s">
-        <v>93</v>
+        <v>558</v>
       </c>
       <c r="C529" t="s">
         <v>29</v>
       </c>
       <c r="D529" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9991,13 +10118,13 @@
         <v>18</v>
       </c>
       <c r="B530" t="s">
-        <v>532</v>
+        <v>260</v>
       </c>
       <c r="C530" t="s">
         <v>29</v>
       </c>
       <c r="D530" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10005,13 +10132,13 @@
         <v>18</v>
       </c>
       <c r="B531" t="s">
-        <v>87</v>
+        <v>623</v>
       </c>
       <c r="C531" t="s">
         <v>29</v>
       </c>
       <c r="D531" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10019,13 +10146,13 @@
         <v>18</v>
       </c>
       <c r="B532" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="C532" t="s">
         <v>29</v>
       </c>
       <c r="D532" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10033,7 +10160,7 @@
         <v>18</v>
       </c>
       <c r="B533" t="s">
-        <v>558</v>
+        <v>303</v>
       </c>
       <c r="C533" t="s">
         <v>29</v>
@@ -10044,24 +10171,24 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B534" t="s">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="C534" t="s">
         <v>29</v>
       </c>
       <c r="D534" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="B535" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="C535" t="s">
         <v>29</v>
@@ -10072,122 +10199,122 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="B536" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="C536" t="s">
         <v>29</v>
       </c>
       <c r="D536" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
-        <v>18</v>
+        <v>415</v>
       </c>
       <c r="B537" t="s">
-        <v>303</v>
+        <v>151</v>
       </c>
       <c r="C537" t="s">
         <v>29</v>
       </c>
       <c r="D537" t="s">
-        <v>711</v>
+        <v>414</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="B538" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C538" t="s">
         <v>29</v>
       </c>
       <c r="D538" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="B539" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="C539" t="s">
         <v>29</v>
       </c>
       <c r="D539" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
-        <v>188</v>
+        <v>461</v>
       </c>
       <c r="B540" t="s">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="C540" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D540" t="s">
-        <v>711</v>
+        <v>219</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
-        <v>415</v>
+        <v>220</v>
       </c>
       <c r="B541" t="s">
-        <v>151</v>
+        <v>470</v>
       </c>
       <c r="C541" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D541" t="s">
-        <v>414</v>
+        <v>219</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="B542" t="s">
-        <v>101</v>
+        <v>404</v>
       </c>
       <c r="C542" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D542" t="s">
-        <v>676</v>
+        <v>219</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="B543" t="s">
-        <v>147</v>
+        <v>404</v>
       </c>
       <c r="C543" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D543" t="s">
-        <v>709</v>
+        <v>219</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
-        <v>461</v>
+        <v>220</v>
       </c>
       <c r="B544" t="s">
-        <v>404</v>
+        <v>221</v>
       </c>
       <c r="C544" t="s">
         <v>27</v>
@@ -10198,100 +10325,100 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="B545" t="s">
-        <v>470</v>
+        <v>293</v>
       </c>
       <c r="C545" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D545" t="s">
-        <v>219</v>
+        <v>661</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="B546" t="s">
-        <v>404</v>
+        <v>34</v>
       </c>
       <c r="C546" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D546" t="s">
-        <v>219</v>
+        <v>661</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="B547" t="s">
-        <v>404</v>
+        <v>282</v>
       </c>
       <c r="C547" t="s">
         <v>1</v>
       </c>
       <c r="D547" t="s">
-        <v>219</v>
+        <v>661</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="B548" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="C548" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D548" t="s">
-        <v>219</v>
+        <v>666</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B549" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C549" t="s">
         <v>1</v>
       </c>
       <c r="D549" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B550" t="s">
-        <v>34</v>
+        <v>402</v>
       </c>
       <c r="C550" t="s">
         <v>1</v>
       </c>
       <c r="D550" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B551" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="C551" t="s">
         <v>1</v>
       </c>
       <c r="D551" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10299,7 +10426,7 @@
         <v>105</v>
       </c>
       <c r="B552" t="s">
-        <v>283</v>
+        <v>110</v>
       </c>
       <c r="C552" t="s">
         <v>1</v>
@@ -10313,7 +10440,7 @@
         <v>105</v>
       </c>
       <c r="B553" t="s">
-        <v>304</v>
+        <v>8</v>
       </c>
       <c r="C553" t="s">
         <v>1</v>
@@ -10327,7 +10454,7 @@
         <v>105</v>
       </c>
       <c r="B554" t="s">
-        <v>402</v>
+        <v>154</v>
       </c>
       <c r="C554" t="s">
         <v>1</v>
@@ -10341,13 +10468,13 @@
         <v>105</v>
       </c>
       <c r="B555" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="C555" t="s">
         <v>1</v>
       </c>
       <c r="D555" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10355,13 +10482,13 @@
         <v>105</v>
       </c>
       <c r="B556" t="s">
-        <v>110</v>
+        <v>601</v>
       </c>
       <c r="C556" t="s">
         <v>1</v>
       </c>
       <c r="D556" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10369,13 +10496,13 @@
         <v>105</v>
       </c>
       <c r="B557" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="C557" t="s">
         <v>1</v>
       </c>
       <c r="D557" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10383,13 +10510,13 @@
         <v>105</v>
       </c>
       <c r="B558" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="C558" t="s">
         <v>1</v>
       </c>
       <c r="D558" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10397,102 +10524,102 @@
         <v>105</v>
       </c>
       <c r="B559" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="C559" t="s">
         <v>1</v>
       </c>
       <c r="D559" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
-        <v>105</v>
+        <v>365</v>
       </c>
       <c r="B560" t="s">
-        <v>601</v>
+        <v>34</v>
       </c>
       <c r="C560" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D560" t="s">
-        <v>664</v>
+        <v>337</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
-        <v>105</v>
+        <v>338</v>
       </c>
       <c r="B561" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="C561" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D561" t="s">
-        <v>664</v>
+        <v>337</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
-        <v>105</v>
+        <v>451</v>
       </c>
       <c r="B562" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="C562" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D562" t="s">
-        <v>664</v>
+        <v>215</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="B563" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="C563" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D563" t="s">
-        <v>664</v>
+        <v>215</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
-        <v>365</v>
+        <v>216</v>
       </c>
       <c r="B564" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="C564" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D564" t="s">
-        <v>337</v>
+        <v>215</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
-        <v>338</v>
+        <v>216</v>
       </c>
       <c r="B565" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="C565" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D565" t="s">
-        <v>337</v>
+        <v>215</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="B566" t="s">
         <v>217</v>
@@ -10506,10 +10633,10 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
-        <v>216</v>
+        <v>553</v>
       </c>
       <c r="B567" t="s">
-        <v>318</v>
+        <v>554</v>
       </c>
       <c r="C567" t="s">
         <v>39</v>
@@ -10520,122 +10647,122 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
-        <v>216</v>
+        <v>619</v>
       </c>
       <c r="B568" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="C568" t="s">
         <v>39</v>
       </c>
       <c r="D568" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
-        <v>216</v>
+        <v>504</v>
       </c>
       <c r="B569" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="C569" t="s">
         <v>39</v>
       </c>
       <c r="D569" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="B570" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="C570" t="s">
         <v>39</v>
       </c>
       <c r="D570" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
-        <v>553</v>
+        <v>376</v>
       </c>
       <c r="B571" t="s">
-        <v>554</v>
+        <v>15</v>
       </c>
       <c r="C571" t="s">
         <v>39</v>
       </c>
       <c r="D571" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="B572" t="s">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="C572" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D572" t="s">
-        <v>375</v>
+        <v>656</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="B573" t="s">
-        <v>15</v>
+        <v>431</v>
       </c>
       <c r="C573" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D573" t="s">
-        <v>375</v>
+        <v>656</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
-        <v>445</v>
+        <v>175</v>
       </c>
       <c r="B574" t="s">
-        <v>15</v>
+        <v>510</v>
       </c>
       <c r="C574" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D574" t="s">
-        <v>375</v>
+        <v>656</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
-        <v>376</v>
+        <v>175</v>
       </c>
       <c r="B575" t="s">
-        <v>15</v>
+        <v>509</v>
       </c>
       <c r="C575" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D575" t="s">
-        <v>375</v>
+        <v>650</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
-        <v>585</v>
+        <v>175</v>
       </c>
       <c r="B576" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="C576" t="s">
         <v>29</v>
@@ -10646,10 +10773,10 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
-        <v>430</v>
+        <v>175</v>
       </c>
       <c r="B577" t="s">
-        <v>431</v>
+        <v>255</v>
       </c>
       <c r="C577" t="s">
         <v>29</v>
@@ -10663,7 +10790,7 @@
         <v>175</v>
       </c>
       <c r="B578" t="s">
-        <v>510</v>
+        <v>176</v>
       </c>
       <c r="C578" t="s">
         <v>29</v>
@@ -10677,7 +10804,7 @@
         <v>175</v>
       </c>
       <c r="B579" t="s">
-        <v>509</v>
+        <v>183</v>
       </c>
       <c r="C579" t="s">
         <v>29</v>
@@ -10691,21 +10818,21 @@
         <v>175</v>
       </c>
       <c r="B580" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C580" t="s">
         <v>29</v>
       </c>
       <c r="D580" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="B581" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="C581" t="s">
         <v>29</v>
@@ -10716,44 +10843,44 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="B582" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C582" t="s">
         <v>29</v>
       </c>
       <c r="D582" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="B583" t="s">
-        <v>183</v>
+        <v>385</v>
       </c>
       <c r="C583" t="s">
         <v>29</v>
       </c>
       <c r="D583" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="B584" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C584" t="s">
         <v>29</v>
       </c>
       <c r="D584" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10761,7 +10888,7 @@
         <v>67</v>
       </c>
       <c r="B585" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="C585" t="s">
         <v>29</v>
@@ -10775,13 +10902,13 @@
         <v>67</v>
       </c>
       <c r="B586" t="s">
-        <v>202</v>
+        <v>395</v>
       </c>
       <c r="C586" t="s">
         <v>29</v>
       </c>
       <c r="D586" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10789,7 +10916,7 @@
         <v>67</v>
       </c>
       <c r="B587" t="s">
-        <v>385</v>
+        <v>255</v>
       </c>
       <c r="C587" t="s">
         <v>29</v>
@@ -10803,7 +10930,7 @@
         <v>67</v>
       </c>
       <c r="B588" t="s">
-        <v>81</v>
+        <v>565</v>
       </c>
       <c r="C588" t="s">
         <v>29</v>
@@ -10817,13 +10944,13 @@
         <v>67</v>
       </c>
       <c r="B589" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="C589" t="s">
         <v>29</v>
       </c>
       <c r="D589" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10831,13 +10958,13 @@
         <v>67</v>
       </c>
       <c r="B590" t="s">
-        <v>395</v>
+        <v>68</v>
       </c>
       <c r="C590" t="s">
         <v>29</v>
       </c>
       <c r="D590" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10845,13 +10972,13 @@
         <v>67</v>
       </c>
       <c r="B591" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C591" t="s">
         <v>29</v>
       </c>
       <c r="D591" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10859,13 +10986,13 @@
         <v>67</v>
       </c>
       <c r="B592" t="s">
-        <v>565</v>
+        <v>378</v>
       </c>
       <c r="C592" t="s">
         <v>29</v>
       </c>
       <c r="D592" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10873,7 +11000,7 @@
         <v>67</v>
       </c>
       <c r="B593" t="s">
-        <v>297</v>
+        <v>586</v>
       </c>
       <c r="C593" t="s">
         <v>29</v>
@@ -10884,147 +11011,147 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="B594" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="C594" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D594" t="s">
-        <v>650</v>
+        <v>178</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="B595" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="C595" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D595" t="s">
-        <v>650</v>
+        <v>178</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
-        <v>67</v>
+        <v>578</v>
       </c>
       <c r="B596" t="s">
-        <v>378</v>
+        <v>579</v>
       </c>
       <c r="C596" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D596" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
-        <v>67</v>
+        <v>441</v>
       </c>
       <c r="B597" t="s">
-        <v>586</v>
+        <v>442</v>
       </c>
       <c r="C597" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D597" t="s">
-        <v>650</v>
+        <v>355</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
-        <v>261</v>
+        <v>537</v>
       </c>
       <c r="B598" t="s">
-        <v>262</v>
+        <v>582</v>
       </c>
       <c r="C598" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D598" t="s">
-        <v>178</v>
+        <v>536</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
-        <v>179</v>
+        <v>537</v>
       </c>
       <c r="B599" t="s">
-        <v>180</v>
+        <v>538</v>
       </c>
       <c r="C599" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D599" t="s">
-        <v>178</v>
+        <v>536</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
-        <v>578</v>
+        <v>272</v>
       </c>
       <c r="B600" t="s">
-        <v>579</v>
+        <v>6</v>
       </c>
       <c r="C600" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D600" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="B601" t="s">
-        <v>442</v>
+        <v>6</v>
       </c>
       <c r="C601" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D601" t="s">
-        <v>355</v>
+        <v>710</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="B602" t="s">
-        <v>582</v>
+        <v>6</v>
       </c>
       <c r="C602" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D602" t="s">
-        <v>536</v>
+        <v>710</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="B603" t="s">
-        <v>538</v>
+        <v>464</v>
       </c>
       <c r="C603" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D603" t="s">
-        <v>536</v>
+        <v>69</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
-        <v>272</v>
+        <v>5</v>
       </c>
       <c r="B604" t="s">
         <v>6</v>
@@ -11038,10 +11165,10 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="B605" t="s">
-        <v>6</v>
+        <v>577</v>
       </c>
       <c r="C605" t="s">
         <v>29</v>
@@ -11052,10 +11179,10 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
-        <v>511</v>
+        <v>5</v>
       </c>
       <c r="B606" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="C606" t="s">
         <v>29</v>
@@ -11069,13 +11196,13 @@
         <v>5</v>
       </c>
       <c r="B607" t="s">
-        <v>464</v>
+        <v>563</v>
       </c>
       <c r="C607" t="s">
         <v>29</v>
       </c>
       <c r="D607" t="s">
-        <v>69</v>
+        <v>710</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11083,7 +11210,7 @@
         <v>5</v>
       </c>
       <c r="B608" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="C608" t="s">
         <v>29</v>
@@ -11097,7 +11224,7 @@
         <v>5</v>
       </c>
       <c r="B609" t="s">
-        <v>577</v>
+        <v>391</v>
       </c>
       <c r="C609" t="s">
         <v>29</v>
@@ -11111,13 +11238,13 @@
         <v>5</v>
       </c>
       <c r="B610" t="s">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="C610" t="s">
         <v>29</v>
       </c>
       <c r="D610" t="s">
-        <v>710</v>
+        <v>69</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11125,13 +11252,13 @@
         <v>5</v>
       </c>
       <c r="B611" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="C611" t="s">
         <v>29</v>
       </c>
       <c r="D611" t="s">
-        <v>710</v>
+        <v>69</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11139,13 +11266,13 @@
         <v>5</v>
       </c>
       <c r="B612" t="s">
-        <v>122</v>
+        <v>313</v>
       </c>
       <c r="C612" t="s">
         <v>29</v>
       </c>
       <c r="D612" t="s">
-        <v>710</v>
+        <v>69</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11153,91 +11280,91 @@
         <v>5</v>
       </c>
       <c r="B613" t="s">
-        <v>391</v>
+        <v>70</v>
       </c>
       <c r="C613" t="s">
         <v>29</v>
       </c>
       <c r="D613" t="s">
-        <v>710</v>
+        <v>69</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
-        <v>5</v>
+        <v>452</v>
       </c>
       <c r="B614" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="C614" t="s">
         <v>29</v>
       </c>
       <c r="D614" t="s">
-        <v>69</v>
+        <v>710</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="B615" t="s">
-        <v>540</v>
+        <v>104</v>
       </c>
       <c r="C615" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D615" t="s">
-        <v>69</v>
+        <v>644</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="B616" t="s">
-        <v>313</v>
+        <v>104</v>
       </c>
       <c r="C616" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D616" t="s">
-        <v>69</v>
+        <v>644</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="B617" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="C617" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D617" t="s">
-        <v>69</v>
+        <v>644</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
-        <v>452</v>
+        <v>55</v>
       </c>
       <c r="B618" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C618" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D618" t="s">
-        <v>710</v>
+        <v>644</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="B619" t="s">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="C619" t="s">
         <v>1</v>
@@ -11248,10 +11375,10 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B620" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C620" t="s">
         <v>1</v>
@@ -11262,10 +11389,10 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B621" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="C621" t="s">
         <v>1</v>
@@ -11276,10 +11403,10 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
-        <v>55</v>
+        <v>555</v>
       </c>
       <c r="B622" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C622" t="s">
         <v>1</v>
@@ -11290,62 +11417,5664 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
-        <v>55</v>
+        <v>481</v>
       </c>
       <c r="B623" t="s">
-        <v>310</v>
+        <v>482</v>
       </c>
       <c r="C623" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D623" t="s">
-        <v>644</v>
+        <v>480</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
-        <v>55</v>
+        <v>481</v>
       </c>
       <c r="B624" t="s">
-        <v>56</v>
+        <v>483</v>
       </c>
       <c r="C624" t="s">
+        <v>29</v>
+      </c>
+      <c r="D624" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A625" t="s">
+        <v>487</v>
+      </c>
+      <c r="B625" t="s">
+        <v>482</v>
+      </c>
+      <c r="C625" t="s">
+        <v>29</v>
+      </c>
+      <c r="D625" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A626" t="s">
+        <v>487</v>
+      </c>
+      <c r="B626" t="s">
+        <v>483</v>
+      </c>
+      <c r="C626" t="s">
+        <v>29</v>
+      </c>
+      <c r="D626" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A627" t="s">
+        <v>481</v>
+      </c>
+      <c r="B627" t="s">
+        <v>482</v>
+      </c>
+      <c r="C627" t="s">
         <v>1</v>
       </c>
-      <c r="D624" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A625" t="s">
-        <v>229</v>
-      </c>
-      <c r="B625" t="s">
-        <v>104</v>
-      </c>
-      <c r="C625" t="s">
+      <c r="D627" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A628" t="s">
+        <v>481</v>
+      </c>
+      <c r="B628" t="s">
+        <v>483</v>
+      </c>
+      <c r="C628" t="s">
         <v>1</v>
       </c>
-      <c r="D625" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A626" t="s">
-        <v>555</v>
-      </c>
-      <c r="B626" t="s">
-        <v>56</v>
-      </c>
-      <c r="C626" t="s">
+      <c r="D628" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A629" t="s">
+        <v>487</v>
+      </c>
+      <c r="B629" t="s">
+        <v>482</v>
+      </c>
+      <c r="C629" t="s">
         <v>1</v>
       </c>
-      <c r="D626" t="s">
-        <v>644</v>
+      <c r="D629" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A630" t="s">
+        <v>487</v>
+      </c>
+      <c r="B630" t="s">
+        <v>483</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1</v>
+      </c>
+      <c r="D630" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A631" t="s">
+        <v>481</v>
+      </c>
+      <c r="B631" t="s">
+        <v>482</v>
+      </c>
+      <c r="C631" t="s">
+        <v>314</v>
+      </c>
+      <c r="D631" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A632" t="s">
+        <v>481</v>
+      </c>
+      <c r="B632" t="s">
+        <v>483</v>
+      </c>
+      <c r="C632" t="s">
+        <v>314</v>
+      </c>
+      <c r="D632" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A633" t="s">
+        <v>487</v>
+      </c>
+      <c r="B633" t="s">
+        <v>482</v>
+      </c>
+      <c r="C633" t="s">
+        <v>314</v>
+      </c>
+      <c r="D633" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A634" t="s">
+        <v>487</v>
+      </c>
+      <c r="B634" t="s">
+        <v>483</v>
+      </c>
+      <c r="C634" t="s">
+        <v>314</v>
+      </c>
+      <c r="D634" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A635" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C635" t="s">
+        <v>29</v>
+      </c>
+      <c r="D635" t="s">
+        <v>753</v>
+      </c>
+      <c r="G635" s="2"/>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A636" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C636" t="s">
+        <v>29</v>
+      </c>
+      <c r="D636" t="s">
+        <v>753</v>
+      </c>
+      <c r="G636" s="2"/>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A637" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C637" t="s">
+        <v>29</v>
+      </c>
+      <c r="D637" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A638" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C638" t="s">
+        <v>29</v>
+      </c>
+      <c r="D638" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A639" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C639" t="s">
+        <v>29</v>
+      </c>
+      <c r="D639" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A640" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C640" t="s">
+        <v>29</v>
+      </c>
+      <c r="D640" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A641" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C641" t="s">
+        <v>29</v>
+      </c>
+      <c r="D641" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A642" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C642" t="s">
+        <v>29</v>
+      </c>
+      <c r="D642" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A643" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C643" t="s">
+        <v>29</v>
+      </c>
+      <c r="D643" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A644" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C644" t="s">
+        <v>29</v>
+      </c>
+      <c r="D644" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A645" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C645" t="s">
+        <v>29</v>
+      </c>
+      <c r="D645" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A646" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C646" t="s">
+        <v>29</v>
+      </c>
+      <c r="D646" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A647" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C647" t="s">
+        <v>29</v>
+      </c>
+      <c r="D647" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A648" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C648" t="s">
+        <v>29</v>
+      </c>
+      <c r="D648" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A649" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C649" t="s">
+        <v>29</v>
+      </c>
+      <c r="D649" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A650" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C650" t="s">
+        <v>29</v>
+      </c>
+      <c r="D650" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A651" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C651" t="s">
+        <v>29</v>
+      </c>
+      <c r="D651" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A652" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C652" t="s">
+        <v>29</v>
+      </c>
+      <c r="D652" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A653" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C653" t="s">
+        <v>29</v>
+      </c>
+      <c r="D653" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A654" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C654" t="s">
+        <v>29</v>
+      </c>
+      <c r="D654" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A655" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C655" t="s">
+        <v>29</v>
+      </c>
+      <c r="D655" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A656" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C656" t="s">
+        <v>29</v>
+      </c>
+      <c r="D656" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A657" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C657" t="s">
+        <v>29</v>
+      </c>
+      <c r="D657" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A658" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C658" t="s">
+        <v>29</v>
+      </c>
+      <c r="D658" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A659" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C659" t="s">
+        <v>29</v>
+      </c>
+      <c r="D659" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A660" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C660" t="s">
+        <v>29</v>
+      </c>
+      <c r="D660" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A661" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C661" t="s">
+        <v>29</v>
+      </c>
+      <c r="D661" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A662" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C662" t="s">
+        <v>29</v>
+      </c>
+      <c r="D662" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A663" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C663" t="s">
+        <v>29</v>
+      </c>
+      <c r="D663" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A664" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C664" t="s">
+        <v>29</v>
+      </c>
+      <c r="D664" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A665" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C665" t="s">
+        <v>29</v>
+      </c>
+      <c r="D665" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A666" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C666" t="s">
+        <v>29</v>
+      </c>
+      <c r="D666" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A667" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C667" t="s">
+        <v>29</v>
+      </c>
+      <c r="D667" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A668" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C668" t="s">
+        <v>29</v>
+      </c>
+      <c r="D668" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A669" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C669" t="s">
+        <v>29</v>
+      </c>
+      <c r="D669" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A670" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C670" t="s">
+        <v>29</v>
+      </c>
+      <c r="D670" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A671" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C671" t="s">
+        <v>29</v>
+      </c>
+      <c r="D671" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A672" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C672" t="s">
+        <v>29</v>
+      </c>
+      <c r="D672" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A673" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C673" t="s">
+        <v>29</v>
+      </c>
+      <c r="D673" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A674" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C674" t="s">
+        <v>29</v>
+      </c>
+      <c r="D674" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A675" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C675" t="s">
+        <v>29</v>
+      </c>
+      <c r="D675" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A676" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C676" t="s">
+        <v>29</v>
+      </c>
+      <c r="D676" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A677" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C677" t="s">
+        <v>29</v>
+      </c>
+      <c r="D677" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A678" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C678" t="s">
+        <v>29</v>
+      </c>
+      <c r="D678" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A679" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C679" t="s">
+        <v>29</v>
+      </c>
+      <c r="D679" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A680" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C680" t="s">
+        <v>29</v>
+      </c>
+      <c r="D680" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A681" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C681" t="s">
+        <v>29</v>
+      </c>
+      <c r="D681" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A682" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C682" t="s">
+        <v>29</v>
+      </c>
+      <c r="D682" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A683" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C683" t="s">
+        <v>29</v>
+      </c>
+      <c r="D683" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A684" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C684" t="s">
+        <v>29</v>
+      </c>
+      <c r="D684" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A685" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C685" t="s">
+        <v>29</v>
+      </c>
+      <c r="D685" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A686" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C686" t="s">
+        <v>29</v>
+      </c>
+      <c r="D686" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A687" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C687" t="s">
+        <v>29</v>
+      </c>
+      <c r="D687" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A688" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C688" t="s">
+        <v>29</v>
+      </c>
+      <c r="D688" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A689" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C689" t="s">
+        <v>29</v>
+      </c>
+      <c r="D689" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A690" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C690" t="s">
+        <v>29</v>
+      </c>
+      <c r="D690" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A691" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C691" t="s">
+        <v>29</v>
+      </c>
+      <c r="D691" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A692" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C692" t="s">
+        <v>29</v>
+      </c>
+      <c r="D692" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A693" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C693" t="s">
+        <v>29</v>
+      </c>
+      <c r="D693" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A694" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C694" t="s">
+        <v>29</v>
+      </c>
+      <c r="D694" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A695" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C695" t="s">
+        <v>29</v>
+      </c>
+      <c r="D695" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A696" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C696" t="s">
+        <v>29</v>
+      </c>
+      <c r="D696" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A697" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C697" t="s">
+        <v>29</v>
+      </c>
+      <c r="D697" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A698" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C698" t="s">
+        <v>29</v>
+      </c>
+      <c r="D698" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A699" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C699" t="s">
+        <v>29</v>
+      </c>
+      <c r="D699" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A700" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C700" t="s">
+        <v>29</v>
+      </c>
+      <c r="D700" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A701" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C701" t="s">
+        <v>29</v>
+      </c>
+      <c r="D701" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A702" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C702" t="s">
+        <v>29</v>
+      </c>
+      <c r="D702" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A703" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C703" t="s">
+        <v>29</v>
+      </c>
+      <c r="D703" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A704" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C704" t="s">
+        <v>29</v>
+      </c>
+      <c r="D704" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A705" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C705" t="s">
+        <v>29</v>
+      </c>
+      <c r="D705" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A706" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C706" t="s">
+        <v>29</v>
+      </c>
+      <c r="D706" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A707" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C707" t="s">
+        <v>29</v>
+      </c>
+      <c r="D707" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A708" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C708" t="s">
+        <v>29</v>
+      </c>
+      <c r="D708" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A709" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C709" t="s">
+        <v>29</v>
+      </c>
+      <c r="D709" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A710" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C710" t="s">
+        <v>29</v>
+      </c>
+      <c r="D710" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A711" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C711" t="s">
+        <v>29</v>
+      </c>
+      <c r="D711" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A712" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C712" t="s">
+        <v>29</v>
+      </c>
+      <c r="D712" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A713" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C713" t="s">
+        <v>29</v>
+      </c>
+      <c r="D713" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A714" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C714" t="s">
+        <v>29</v>
+      </c>
+      <c r="D714" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A715" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C715" t="s">
+        <v>29</v>
+      </c>
+      <c r="D715" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A716" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C716" t="s">
+        <v>29</v>
+      </c>
+      <c r="D716" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A717" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C717" t="s">
+        <v>29</v>
+      </c>
+      <c r="D717" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A718" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C718" t="s">
+        <v>29</v>
+      </c>
+      <c r="D718" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A719" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C719" t="s">
+        <v>29</v>
+      </c>
+      <c r="D719" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A720" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C720" t="s">
+        <v>29</v>
+      </c>
+      <c r="D720" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A721" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C721" t="s">
+        <v>29</v>
+      </c>
+      <c r="D721" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A722" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C722" t="s">
+        <v>29</v>
+      </c>
+      <c r="D722" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A723" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C723" t="s">
+        <v>29</v>
+      </c>
+      <c r="D723" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A724" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C724" t="s">
+        <v>29</v>
+      </c>
+      <c r="D724" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A725" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C725" t="s">
+        <v>29</v>
+      </c>
+      <c r="D725" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A726" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C726" t="s">
+        <v>29</v>
+      </c>
+      <c r="D726" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A727" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C727" t="s">
+        <v>29</v>
+      </c>
+      <c r="D727" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A728" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C728" t="s">
+        <v>29</v>
+      </c>
+      <c r="D728" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A729" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C729" t="s">
+        <v>29</v>
+      </c>
+      <c r="D729" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A730" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C730" t="s">
+        <v>29</v>
+      </c>
+      <c r="D730" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A731" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C731" t="s">
+        <v>29</v>
+      </c>
+      <c r="D731" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A732" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C732" t="s">
+        <v>29</v>
+      </c>
+      <c r="D732" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A733" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C733" t="s">
+        <v>29</v>
+      </c>
+      <c r="D733" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A734" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C734" t="s">
+        <v>29</v>
+      </c>
+      <c r="D734" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A735" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C735" t="s">
+        <v>29</v>
+      </c>
+      <c r="D735" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A736" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C736" t="s">
+        <v>29</v>
+      </c>
+      <c r="D736" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A737" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C737" t="s">
+        <v>29</v>
+      </c>
+      <c r="D737" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A738" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C738" t="s">
+        <v>29</v>
+      </c>
+      <c r="D738" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A739" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C739" t="s">
+        <v>29</v>
+      </c>
+      <c r="D739" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A740" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C740" t="s">
+        <v>29</v>
+      </c>
+      <c r="D740" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A741" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C741" t="s">
+        <v>29</v>
+      </c>
+      <c r="D741" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A742" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C742" t="s">
+        <v>29</v>
+      </c>
+      <c r="D742" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A743" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C743" t="s">
+        <v>29</v>
+      </c>
+      <c r="D743" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A744" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C744" t="s">
+        <v>29</v>
+      </c>
+      <c r="D744" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A745" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C745" t="s">
+        <v>29</v>
+      </c>
+      <c r="D745" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A746" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C746" t="s">
+        <v>29</v>
+      </c>
+      <c r="D746" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A747" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C747" t="s">
+        <v>29</v>
+      </c>
+      <c r="D747" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A748" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C748" t="s">
+        <v>29</v>
+      </c>
+      <c r="D748" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A749" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C749" t="s">
+        <v>29</v>
+      </c>
+      <c r="D749" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A750" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C750" t="s">
+        <v>29</v>
+      </c>
+      <c r="D750" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A751" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C751" t="s">
+        <v>29</v>
+      </c>
+      <c r="D751" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A752" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C752" t="s">
+        <v>29</v>
+      </c>
+      <c r="D752" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A753" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C753" t="s">
+        <v>29</v>
+      </c>
+      <c r="D753" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A754" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C754" t="s">
+        <v>29</v>
+      </c>
+      <c r="D754" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A755" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C755" t="s">
+        <v>29</v>
+      </c>
+      <c r="D755" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A756" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C756" t="s">
+        <v>29</v>
+      </c>
+      <c r="D756" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A757" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C757" t="s">
+        <v>29</v>
+      </c>
+      <c r="D757" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A758" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C758" t="s">
+        <v>29</v>
+      </c>
+      <c r="D758" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A759" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C759" t="s">
+        <v>29</v>
+      </c>
+      <c r="D759" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A760" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C760" t="s">
+        <v>29</v>
+      </c>
+      <c r="D760" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A761" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C761" t="s">
+        <v>29</v>
+      </c>
+      <c r="D761" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A762" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C762" t="s">
+        <v>29</v>
+      </c>
+      <c r="D762" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A763" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C763" t="s">
+        <v>29</v>
+      </c>
+      <c r="D763" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A764" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C764" t="s">
+        <v>29</v>
+      </c>
+      <c r="D764" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A765" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C765" t="s">
+        <v>29</v>
+      </c>
+      <c r="D765" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A766" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C766" t="s">
+        <v>29</v>
+      </c>
+      <c r="D766" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A767" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C767" t="s">
+        <v>29</v>
+      </c>
+      <c r="D767" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A768" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C768" t="s">
+        <v>29</v>
+      </c>
+      <c r="D768" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A769" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C769" t="s">
+        <v>29</v>
+      </c>
+      <c r="D769" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A770" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C770" t="s">
+        <v>29</v>
+      </c>
+      <c r="D770" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A771" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C771" t="s">
+        <v>29</v>
+      </c>
+      <c r="D771" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A772" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C772" t="s">
+        <v>29</v>
+      </c>
+      <c r="D772" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A773" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C773" t="s">
+        <v>29</v>
+      </c>
+      <c r="D773" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A774" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C774" t="s">
+        <v>29</v>
+      </c>
+      <c r="D774" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A775" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C775" t="s">
+        <v>29</v>
+      </c>
+      <c r="D775" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A776" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C776" t="s">
+        <v>29</v>
+      </c>
+      <c r="D776" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A777" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C777" t="s">
+        <v>29</v>
+      </c>
+      <c r="D777" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A778" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C778" t="s">
+        <v>29</v>
+      </c>
+      <c r="D778" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A779" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C779" t="s">
+        <v>29</v>
+      </c>
+      <c r="D779" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A780" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C780" t="s">
+        <v>29</v>
+      </c>
+      <c r="D780" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A781" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C781" t="s">
+        <v>29</v>
+      </c>
+      <c r="D781" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A782" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C782" t="s">
+        <v>29</v>
+      </c>
+      <c r="D782" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A783" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C783" t="s">
+        <v>29</v>
+      </c>
+      <c r="D783" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A784" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C784" t="s">
+        <v>29</v>
+      </c>
+      <c r="D784" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A785" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C785" t="s">
+        <v>29</v>
+      </c>
+      <c r="D785" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A786" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C786" t="s">
+        <v>29</v>
+      </c>
+      <c r="D786" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A787" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C787" t="s">
+        <v>29</v>
+      </c>
+      <c r="D787" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A788" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C788" t="s">
+        <v>29</v>
+      </c>
+      <c r="D788" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A789" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C789" t="s">
+        <v>29</v>
+      </c>
+      <c r="D789" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A790" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C790" t="s">
+        <v>29</v>
+      </c>
+      <c r="D790" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A791" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C791" t="s">
+        <v>29</v>
+      </c>
+      <c r="D791" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A792" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C792" t="s">
+        <v>29</v>
+      </c>
+      <c r="D792" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A793" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C793" t="s">
+        <v>29</v>
+      </c>
+      <c r="D793" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A794" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C794" t="s">
+        <v>29</v>
+      </c>
+      <c r="D794" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A795" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C795" t="s">
+        <v>29</v>
+      </c>
+      <c r="D795" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A796" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C796" t="s">
+        <v>29</v>
+      </c>
+      <c r="D796" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A797" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C797" t="s">
+        <v>29</v>
+      </c>
+      <c r="D797" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A798" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C798" t="s">
+        <v>29</v>
+      </c>
+      <c r="D798" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A799" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C799" t="s">
+        <v>29</v>
+      </c>
+      <c r="D799" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A800" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C800" t="s">
+        <v>29</v>
+      </c>
+      <c r="D800" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A801" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C801" t="s">
+        <v>29</v>
+      </c>
+      <c r="D801" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A802" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C802" t="s">
+        <v>29</v>
+      </c>
+      <c r="D802" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A803" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C803" t="s">
+        <v>29</v>
+      </c>
+      <c r="D803" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A804" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C804" t="s">
+        <v>29</v>
+      </c>
+      <c r="D804" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A805" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C805" t="s">
+        <v>29</v>
+      </c>
+      <c r="D805" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A806" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C806" t="s">
+        <v>29</v>
+      </c>
+      <c r="D806" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A807" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C807" t="s">
+        <v>29</v>
+      </c>
+      <c r="D807" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A808" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C808" t="s">
+        <v>29</v>
+      </c>
+      <c r="D808" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A809" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C809" t="s">
+        <v>29</v>
+      </c>
+      <c r="D809" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A810" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C810" t="s">
+        <v>29</v>
+      </c>
+      <c r="D810" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A811" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C811" t="s">
+        <v>29</v>
+      </c>
+      <c r="D811" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A812" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C812" t="s">
+        <v>29</v>
+      </c>
+      <c r="D812" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A813" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C813" t="s">
+        <v>29</v>
+      </c>
+      <c r="D813" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A814" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C814" t="s">
+        <v>29</v>
+      </c>
+      <c r="D814" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A815" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C815" t="s">
+        <v>29</v>
+      </c>
+      <c r="D815" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A816" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C816" t="s">
+        <v>29</v>
+      </c>
+      <c r="D816" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A817" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C817" t="s">
+        <v>29</v>
+      </c>
+      <c r="D817" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A818" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C818" t="s">
+        <v>29</v>
+      </c>
+      <c r="D818" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A819" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C819" t="s">
+        <v>29</v>
+      </c>
+      <c r="D819" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A820" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C820" t="s">
+        <v>29</v>
+      </c>
+      <c r="D820" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A821" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C821" t="s">
+        <v>29</v>
+      </c>
+      <c r="D821" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A822" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C822" t="s">
+        <v>29</v>
+      </c>
+      <c r="D822" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A823" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C823" t="s">
+        <v>29</v>
+      </c>
+      <c r="D823" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A824" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C824" t="s">
+        <v>29</v>
+      </c>
+      <c r="D824" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A825" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C825" t="s">
+        <v>29</v>
+      </c>
+      <c r="D825" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A826" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C826" t="s">
+        <v>29</v>
+      </c>
+      <c r="D826" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A827" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C827" t="s">
+        <v>29</v>
+      </c>
+      <c r="D827" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A828" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C828" t="s">
+        <v>29</v>
+      </c>
+      <c r="D828" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A829" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C829" t="s">
+        <v>29</v>
+      </c>
+      <c r="D829" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A830" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C830" t="s">
+        <v>29</v>
+      </c>
+      <c r="D830" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A831" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C831" t="s">
+        <v>29</v>
+      </c>
+      <c r="D831" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A832" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C832" t="s">
+        <v>29</v>
+      </c>
+      <c r="D832" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A833" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C833" t="s">
+        <v>29</v>
+      </c>
+      <c r="D833" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A834" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C834" t="s">
+        <v>29</v>
+      </c>
+      <c r="D834" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A835" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C835" t="s">
+        <v>29</v>
+      </c>
+      <c r="D835" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A836" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C836" t="s">
+        <v>29</v>
+      </c>
+      <c r="D836" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A837" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C837" t="s">
+        <v>29</v>
+      </c>
+      <c r="D837" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A838" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C838" t="s">
+        <v>29</v>
+      </c>
+      <c r="D838" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A839" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C839" t="s">
+        <v>29</v>
+      </c>
+      <c r="D839" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A840" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C840" t="s">
+        <v>29</v>
+      </c>
+      <c r="D840" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A841" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C841" t="s">
+        <v>29</v>
+      </c>
+      <c r="D841" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A842" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C842" t="s">
+        <v>29</v>
+      </c>
+      <c r="D842" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A843" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C843" t="s">
+        <v>29</v>
+      </c>
+      <c r="D843" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A844" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C844" t="s">
+        <v>29</v>
+      </c>
+      <c r="D844" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A845" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C845" t="s">
+        <v>29</v>
+      </c>
+      <c r="D845" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A846" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C846" t="s">
+        <v>29</v>
+      </c>
+      <c r="D846" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A847" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C847" t="s">
+        <v>29</v>
+      </c>
+      <c r="D847" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A848" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C848" t="s">
+        <v>29</v>
+      </c>
+      <c r="D848" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A849" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C849" t="s">
+        <v>29</v>
+      </c>
+      <c r="D849" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A850" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C850" t="s">
+        <v>29</v>
+      </c>
+      <c r="D850" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A851" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C851" t="s">
+        <v>29</v>
+      </c>
+      <c r="D851" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A852" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C852" t="s">
+        <v>29</v>
+      </c>
+      <c r="D852" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A853" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C853" t="s">
+        <v>29</v>
+      </c>
+      <c r="D853" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A854" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C854" t="s">
+        <v>29</v>
+      </c>
+      <c r="D854" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A855" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C855" t="s">
+        <v>29</v>
+      </c>
+      <c r="D855" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A856" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C856" t="s">
+        <v>29</v>
+      </c>
+      <c r="D856" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A857" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C857" t="s">
+        <v>29</v>
+      </c>
+      <c r="D857" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A858" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C858" t="s">
+        <v>29</v>
+      </c>
+      <c r="D858" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A859" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C859" t="s">
+        <v>29</v>
+      </c>
+      <c r="D859" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A860" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C860" t="s">
+        <v>29</v>
+      </c>
+      <c r="D860" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A861" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C861" t="s">
+        <v>29</v>
+      </c>
+      <c r="D861" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A862" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C862" t="s">
+        <v>29</v>
+      </c>
+      <c r="D862" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A863" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C863" t="s">
+        <v>29</v>
+      </c>
+      <c r="D863" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A864" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C864" t="s">
+        <v>29</v>
+      </c>
+      <c r="D864" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A865" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C865" t="s">
+        <v>29</v>
+      </c>
+      <c r="D865" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A866" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C866" t="s">
+        <v>29</v>
+      </c>
+      <c r="D866" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A867" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C867" t="s">
+        <v>29</v>
+      </c>
+      <c r="D867" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A868" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C868" t="s">
+        <v>29</v>
+      </c>
+      <c r="D868" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A869" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C869" t="s">
+        <v>29</v>
+      </c>
+      <c r="D869" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A870" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C870" t="s">
+        <v>29</v>
+      </c>
+      <c r="D870" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A871" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C871" t="s">
+        <v>29</v>
+      </c>
+      <c r="D871" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A872" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C872" t="s">
+        <v>29</v>
+      </c>
+      <c r="D872" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A873" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C873" t="s">
+        <v>29</v>
+      </c>
+      <c r="D873" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A874" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C874" t="s">
+        <v>29</v>
+      </c>
+      <c r="D874" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A875" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C875" t="s">
+        <v>29</v>
+      </c>
+      <c r="D875" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A876" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C876" t="s">
+        <v>29</v>
+      </c>
+      <c r="D876" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A877" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C877" t="s">
+        <v>29</v>
+      </c>
+      <c r="D877" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A878" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C878" t="s">
+        <v>29</v>
+      </c>
+      <c r="D878" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A879" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C879" t="s">
+        <v>29</v>
+      </c>
+      <c r="D879" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A880" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C880" t="s">
+        <v>29</v>
+      </c>
+      <c r="D880" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A881" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C881" t="s">
+        <v>29</v>
+      </c>
+      <c r="D881" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A882" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C882" t="s">
+        <v>29</v>
+      </c>
+      <c r="D882" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A883" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C883" t="s">
+        <v>29</v>
+      </c>
+      <c r="D883" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A884" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C884" t="s">
+        <v>29</v>
+      </c>
+      <c r="D884" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A885" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C885" t="s">
+        <v>29</v>
+      </c>
+      <c r="D885" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A886" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C886" t="s">
+        <v>29</v>
+      </c>
+      <c r="D886" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A887" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C887" t="s">
+        <v>29</v>
+      </c>
+      <c r="D887" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A888" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C888" t="s">
+        <v>29</v>
+      </c>
+      <c r="D888" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A889" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C889" t="s">
+        <v>29</v>
+      </c>
+      <c r="D889" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A890" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C890" t="s">
+        <v>29</v>
+      </c>
+      <c r="D890" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A891" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C891" t="s">
+        <v>29</v>
+      </c>
+      <c r="D891" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A892" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C892" t="s">
+        <v>29</v>
+      </c>
+      <c r="D892" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A893" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C893" t="s">
+        <v>29</v>
+      </c>
+      <c r="D893" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A894" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C894" t="s">
+        <v>29</v>
+      </c>
+      <c r="D894" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A895" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C895" t="s">
+        <v>29</v>
+      </c>
+      <c r="D895" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A896" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C896" t="s">
+        <v>29</v>
+      </c>
+      <c r="D896" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A897" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C897" t="s">
+        <v>29</v>
+      </c>
+      <c r="D897" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A898" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C898" t="s">
+        <v>29</v>
+      </c>
+      <c r="D898" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A899" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C899" t="s">
+        <v>29</v>
+      </c>
+      <c r="D899" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A900" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C900" t="s">
+        <v>29</v>
+      </c>
+      <c r="D900" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A901" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C901" t="s">
+        <v>29</v>
+      </c>
+      <c r="D901" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A902" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C902" t="s">
+        <v>29</v>
+      </c>
+      <c r="D902" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A903" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C903" t="s">
+        <v>29</v>
+      </c>
+      <c r="D903" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A904" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C904" t="s">
+        <v>29</v>
+      </c>
+      <c r="D904" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A905" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C905" t="s">
+        <v>29</v>
+      </c>
+      <c r="D905" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A906" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C906" t="s">
+        <v>29</v>
+      </c>
+      <c r="D906" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A907" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C907" t="s">
+        <v>29</v>
+      </c>
+      <c r="D907" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A908" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C908" t="s">
+        <v>29</v>
+      </c>
+      <c r="D908" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A909" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C909" t="s">
+        <v>29</v>
+      </c>
+      <c r="D909" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A910" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C910" t="s">
+        <v>29</v>
+      </c>
+      <c r="D910" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A911" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C911" t="s">
+        <v>29</v>
+      </c>
+      <c r="D911" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A912" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C912" t="s">
+        <v>29</v>
+      </c>
+      <c r="D912" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A913" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C913" t="s">
+        <v>29</v>
+      </c>
+      <c r="D913" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A914" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C914" t="s">
+        <v>29</v>
+      </c>
+      <c r="D914" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A915" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B915" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C915" t="s">
+        <v>29</v>
+      </c>
+      <c r="D915" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A916" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C916" t="s">
+        <v>29</v>
+      </c>
+      <c r="D916" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A917" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C917" t="s">
+        <v>29</v>
+      </c>
+      <c r="D917" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A918" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C918" t="s">
+        <v>29</v>
+      </c>
+      <c r="D918" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A919" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C919" t="s">
+        <v>29</v>
+      </c>
+      <c r="D919" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A920" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C920" t="s">
+        <v>29</v>
+      </c>
+      <c r="D920" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A921" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C921" t="s">
+        <v>29</v>
+      </c>
+      <c r="D921" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A922" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C922" t="s">
+        <v>29</v>
+      </c>
+      <c r="D922" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A923" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B923" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C923" t="s">
+        <v>29</v>
+      </c>
+      <c r="D923" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A924" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C924" t="s">
+        <v>29</v>
+      </c>
+      <c r="D924" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A925" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C925" t="s">
+        <v>29</v>
+      </c>
+      <c r="D925" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A926" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C926" t="s">
+        <v>29</v>
+      </c>
+      <c r="D926" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A927" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B927" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C927" t="s">
+        <v>29</v>
+      </c>
+      <c r="D927" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A928" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B928" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C928" t="s">
+        <v>29</v>
+      </c>
+      <c r="D928" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A929" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B929" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C929" t="s">
+        <v>29</v>
+      </c>
+      <c r="D929" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A930" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C930" t="s">
+        <v>29</v>
+      </c>
+      <c r="D930" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A931" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C931" t="s">
+        <v>29</v>
+      </c>
+      <c r="D931" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A932" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B932" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C932" t="s">
+        <v>29</v>
+      </c>
+      <c r="D932" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A933" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C933" t="s">
+        <v>29</v>
+      </c>
+      <c r="D933" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A934" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C934" t="s">
+        <v>29</v>
+      </c>
+      <c r="D934" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A935" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C935" t="s">
+        <v>29</v>
+      </c>
+      <c r="D935" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A936" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C936" t="s">
+        <v>29</v>
+      </c>
+      <c r="D936" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A937" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B937" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C937" t="s">
+        <v>29</v>
+      </c>
+      <c r="D937" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A938" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B938" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C938" t="s">
+        <v>29</v>
+      </c>
+      <c r="D938" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A939" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B939" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C939" t="s">
+        <v>29</v>
+      </c>
+      <c r="D939" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A940" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C940" t="s">
+        <v>29</v>
+      </c>
+      <c r="D940" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A941" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B941" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C941" t="s">
+        <v>29</v>
+      </c>
+      <c r="D941" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A942" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B942" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C942" t="s">
+        <v>29</v>
+      </c>
+      <c r="D942" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A943" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C943" t="s">
+        <v>29</v>
+      </c>
+      <c r="D943" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A944" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C944" t="s">
+        <v>29</v>
+      </c>
+      <c r="D944" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A945" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B945" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C945" t="s">
+        <v>29</v>
+      </c>
+      <c r="D945" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A946" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B946" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C946" t="s">
+        <v>29</v>
+      </c>
+      <c r="D946" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A947" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B947" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C947" t="s">
+        <v>29</v>
+      </c>
+      <c r="D947" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A948" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B948" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C948" t="s">
+        <v>29</v>
+      </c>
+      <c r="D948" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A949" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B949" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C949" t="s">
+        <v>29</v>
+      </c>
+      <c r="D949" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A950" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B950" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C950" t="s">
+        <v>29</v>
+      </c>
+      <c r="D950" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A951" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B951" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C951" t="s">
+        <v>29</v>
+      </c>
+      <c r="D951" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A952" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B952" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C952" t="s">
+        <v>29</v>
+      </c>
+      <c r="D952" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A953" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B953" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C953" t="s">
+        <v>29</v>
+      </c>
+      <c r="D953" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A954" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B954" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C954" t="s">
+        <v>29</v>
+      </c>
+      <c r="D954" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A955" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B955" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C955" t="s">
+        <v>29</v>
+      </c>
+      <c r="D955" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A956" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B956" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C956" t="s">
+        <v>29</v>
+      </c>
+      <c r="D956" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A957" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B957" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C957" t="s">
+        <v>29</v>
+      </c>
+      <c r="D957" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A958" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B958" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C958" t="s">
+        <v>29</v>
+      </c>
+      <c r="D958" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A959" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B959" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C959" t="s">
+        <v>29</v>
+      </c>
+      <c r="D959" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A960" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B960" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C960" t="s">
+        <v>29</v>
+      </c>
+      <c r="D960" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A961" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B961" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C961" t="s">
+        <v>29</v>
+      </c>
+      <c r="D961" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A962" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B962" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C962" t="s">
+        <v>29</v>
+      </c>
+      <c r="D962" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A963" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B963" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C963" t="s">
+        <v>29</v>
+      </c>
+      <c r="D963" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A964" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B964" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C964" t="s">
+        <v>29</v>
+      </c>
+      <c r="D964" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A965" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B965" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C965" t="s">
+        <v>29</v>
+      </c>
+      <c r="D965" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A966" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B966" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C966" t="s">
+        <v>29</v>
+      </c>
+      <c r="D966" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A967" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B967" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C967" t="s">
+        <v>29</v>
+      </c>
+      <c r="D967" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A968" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B968" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C968" t="s">
+        <v>29</v>
+      </c>
+      <c r="D968" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A969" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B969" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C969" t="s">
+        <v>29</v>
+      </c>
+      <c r="D969" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A970" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B970" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C970" t="s">
+        <v>29</v>
+      </c>
+      <c r="D970" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A971" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B971" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C971" t="s">
+        <v>29</v>
+      </c>
+      <c r="D971" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A972" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B972" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C972" t="s">
+        <v>29</v>
+      </c>
+      <c r="D972" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A973" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B973" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C973" t="s">
+        <v>29</v>
+      </c>
+      <c r="D973" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A974" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B974" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C974" t="s">
+        <v>29</v>
+      </c>
+      <c r="D974" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A975" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B975" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C975" t="s">
+        <v>29</v>
+      </c>
+      <c r="D975" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A976" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B976" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C976" t="s">
+        <v>29</v>
+      </c>
+      <c r="D976" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A977" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B977" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C977" t="s">
+        <v>29</v>
+      </c>
+      <c r="D977" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A978" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B978" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C978" t="s">
+        <v>29</v>
+      </c>
+      <c r="D978" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A979" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B979" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C979" t="s">
+        <v>29</v>
+      </c>
+      <c r="D979" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A980" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B980" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C980" t="s">
+        <v>29</v>
+      </c>
+      <c r="D980" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A981" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B981" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C981" t="s">
+        <v>29</v>
+      </c>
+      <c r="D981" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A982" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B982" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C982" t="s">
+        <v>29</v>
+      </c>
+      <c r="D982" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A983" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B983" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C983" t="s">
+        <v>29</v>
+      </c>
+      <c r="D983" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A984" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B984" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C984" t="s">
+        <v>29</v>
+      </c>
+      <c r="D984" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A985" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B985" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C985" t="s">
+        <v>29</v>
+      </c>
+      <c r="D985" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A986" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B986" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C986" t="s">
+        <v>29</v>
+      </c>
+      <c r="D986" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A987" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B987" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C987" t="s">
+        <v>29</v>
+      </c>
+      <c r="D987" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A988" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B988" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C988" t="s">
+        <v>29</v>
+      </c>
+      <c r="D988" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A989" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B989" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C989" t="s">
+        <v>29</v>
+      </c>
+      <c r="D989" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A990" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B990" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C990" t="s">
+        <v>29</v>
+      </c>
+      <c r="D990" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A991" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B991" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C991" t="s">
+        <v>29</v>
+      </c>
+      <c r="D991" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A992" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B992" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C992" t="s">
+        <v>29</v>
+      </c>
+      <c r="D992" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A993" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B993" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C993" t="s">
+        <v>29</v>
+      </c>
+      <c r="D993" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A994" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B994" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C994" t="s">
+        <v>29</v>
+      </c>
+      <c r="D994" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A995" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B995" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C995" t="s">
+        <v>29</v>
+      </c>
+      <c r="D995" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A996" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B996" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C996" t="s">
+        <v>29</v>
+      </c>
+      <c r="D996" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A997" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B997" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C997" t="s">
+        <v>29</v>
+      </c>
+      <c r="D997" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A998" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B998" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C998" t="s">
+        <v>29</v>
+      </c>
+      <c r="D998" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A999" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B999" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C999" t="s">
+        <v>29</v>
+      </c>
+      <c r="D999" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1000" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1000" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1001" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B1001" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1002" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1002" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1003" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1003" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1004" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B1004" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1005" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B1005" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1006" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1006" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1007" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1007" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1008" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1009" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1010" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1011" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1012" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1013" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1014" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1015" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B1015" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1016" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1017" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1017" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1018" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1018" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1019" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1020" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1021" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B1021" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1022" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1023" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1024" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1025" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1026" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1026" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D626" xr:uid="{F884FB02-6BB5-43C2-9376-9DB2EBAF47E5}"/>
+  <autoFilter ref="A1:D1026" xr:uid="{F884FB02-6BB5-43C2-9376-9DB2EBAF47E5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file2.xlsx
+++ b/file2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phan Tich Thau\DL web\loc-thau-thuoc-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EDE4F9-12A0-4F79-842C-7E20F8E248EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71B83C7-6285-4FA9-BA23-C377CDB76212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{415F7D56-AA7E-4C19-A8E2-C0ED349B5966}"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="9984" xr2:uid="{415F7D56-AA7E-4C19-A8E2-C0ED349B5966}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -2696,7 +2696,7 @@
   <dimension ref="A1:G1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
